--- a/Data/Southwest Atlantic and Antarctic food web data.xlsx
+++ b/Data/Southwest Atlantic and Antarctic food web data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\susakort\GitHub\SouthFWReview\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0042D4F-FFD1-4CC4-B3C8-838808A688EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817958C2-4409-43EF-8BC1-FE96D130193D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2835" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{E59D300F-B360-48F7-A22C-3DB47488B3F1}"/>
+    <workbookView xWindow="-38520" yWindow="-2835" windowWidth="38640" windowHeight="21240" xr2:uid="{E59D300F-B360-48F7-A22C-3DB47488B3F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA11616F-DE96-4BB7-B7A4-66CC4376E016}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74559039-3701-41BD-8BD0-7F7B7DE56138}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
